--- a/Electron_chargetomass/Data.xlsx
+++ b/Electron_chargetomass/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\QLab\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\QLab\Electron_chargetomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2101,7 +2101,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,8 +2179,8 @@
         <v>0.01</v>
       </c>
       <c r="I2">
-        <f>2500</f>
-        <v>2500</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="J2">
         <v>1</v>
